--- a/Tournament1Bracket.xlsx
+++ b/Tournament1Bracket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1733467B-6BE7-4585-A0C9-0119846CAB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD25A12E-060B-49AA-B495-9B70EC3D9DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="7110" windowWidth="25485" windowHeight="14595" xr2:uid="{D7CBCFDF-C382-44AA-938F-833AB08825E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7CBCFDF-C382-44AA-938F-833AB08825E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Loser of 12</t>
   </si>
   <si>
-    <t>Loser of 14 (If only one loss)</t>
-  </si>
-  <si>
     <t>Champion</t>
   </si>
   <si>
@@ -100,18 +97,6 @@
   </si>
   <si>
     <t>Loser of 10</t>
-  </si>
-  <si>
-    <t>Loser of 17</t>
-  </si>
-  <si>
-    <t>Loser of 11</t>
-  </si>
-  <si>
-    <t>Match 17 - Battle of the Bandits</t>
-  </si>
-  <si>
-    <t>Match 14 (Possibly for 1st/2nd Place)</t>
   </si>
   <si>
     <t>Match 1</t>
@@ -141,31 +126,46 @@
     <t>Match 9</t>
   </si>
   <si>
-    <t>Match 13 (Loser is 3rd Place)</t>
-  </si>
-  <si>
-    <t>Match 20 (For 5th/4th Place)</t>
-  </si>
-  <si>
-    <t>Match 11</t>
-  </si>
-  <si>
     <t>Match 10</t>
   </si>
   <si>
     <t>Match 6</t>
   </si>
   <si>
-    <t>Match 16 (Loser is 8th Place)</t>
+    <t>Match 11 (Loser is 8th Place)</t>
   </si>
   <si>
-    <t>Match 18 (Loser is 7th Place)</t>
+    <t>Match 14</t>
   </si>
   <si>
-    <t>Match 15 (For 1st/2nd Place)</t>
+    <t>Match 16 (Loser is 6th Place)</t>
   </si>
   <si>
-    <t>Match 19 (Loser is 6th Place)</t>
+    <t>Match 17 (For 5th/4th Place)</t>
+  </si>
+  <si>
+    <t>Match 18 (Loser is 3rd Place)</t>
+  </si>
+  <si>
+    <t>Match 19 (Possibly for 1st/2nd Place)</t>
+  </si>
+  <si>
+    <t>Match 20 (For 1st/2nd Place)</t>
+  </si>
+  <si>
+    <t>Loser of 12 | Loser of 15</t>
+  </si>
+  <si>
+    <t>Match 13 (Loser is 7th Place)</t>
+  </si>
+  <si>
+    <t>Loser of 14</t>
+  </si>
+  <si>
+    <t>Loser of 19 (If only one loss)</t>
+  </si>
+  <si>
+    <t>Match 15</t>
   </si>
 </sst>
 </file>
@@ -311,13 +311,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,9 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3521,8 +3521,8 @@
   </sheetPr>
   <dimension ref="C2:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:O2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P64" sqref="B1:P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3549,21 +3549,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" ht="35.25">
-      <c r="C2" s="14" t="s">
-        <v>17</v>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:20">
@@ -3596,9 +3596,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="15"/>
-      <c r="T4" s="10"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="11"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="4" t="s">
@@ -3616,13 +3616,13 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="15"/>
-      <c r="T5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="11"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -3636,9 +3636,9 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="15"/>
-      <c r="T6" s="10"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="11"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="4" t="s">
@@ -3656,9 +3656,9 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="15"/>
-      <c r="T7" s="10"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="11"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" spans="3:20">
       <c r="C8" s="5"/>
@@ -3674,15 +3674,15 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="15"/>
-      <c r="T8" s="10"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="11"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
@@ -3694,9 +3694,9 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="15"/>
-      <c r="T9" s="10"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="11"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="3:20">
       <c r="C10" s="5"/>
@@ -3712,13 +3712,13 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="15"/>
-      <c r="T10" s="10"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="11"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="3:20">
       <c r="C11" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3732,13 +3732,13 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="15"/>
-      <c r="T11" s="10"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="11"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
@@ -3752,13 +3752,13 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="15"/>
-      <c r="T12" s="10"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="11"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3772,9 +3772,9 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="15"/>
-      <c r="T13" s="10"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="11"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="5"/>
@@ -3790,9 +3790,9 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="15"/>
-      <c r="T14" s="10"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="11"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="3:20">
       <c r="C15" s="5"/>
@@ -3800,19 +3800,19 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="15"/>
-      <c r="T15" s="10"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="11"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="5"/>
@@ -3828,9 +3828,9 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="15"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="11"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="4" t="s">
@@ -3848,13 +3848,13 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="15"/>
-      <c r="T17" s="10"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="11"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
@@ -3868,13 +3868,13 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="15"/>
-      <c r="T18" s="10"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="11"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="3:20">
       <c r="C19" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3888,9 +3888,9 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="15"/>
-      <c r="T19" s="10"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="11"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="5"/>
@@ -3906,15 +3906,15 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="15"/>
-      <c r="T20" s="10"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="11"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="3:20">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -3926,9 +3926,9 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="15"/>
-      <c r="T21" s="10"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="11"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="3:20">
       <c r="C22" s="5"/>
@@ -3944,13 +3944,13 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="15"/>
-      <c r="T22" s="10"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="11"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -3964,13 +3964,13 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="15"/>
-      <c r="T23" s="10"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="11"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
@@ -3982,17 +3982,17 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="15"/>
-      <c r="T24" s="10"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="11"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="3:20">
       <c r="C25" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -4004,15 +4004,15 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="15"/>
-      <c r="T25" s="10"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="11"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="5"/>
@@ -4020,19 +4020,19 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="9" t="s">
-        <v>25</v>
+      <c r="H26" s="10" t="s">
+        <v>37</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="15"/>
-      <c r="T26" s="10"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="11"/>
+      <c r="T26" s="8"/>
     </row>
     <row r="27" spans="3:20">
       <c r="C27" s="5"/>
@@ -4048,9 +4048,9 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="15"/>
-      <c r="T27" s="10"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="11"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" spans="3:20">
       <c r="C28" s="5"/>
@@ -4066,9 +4066,9 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="15"/>
-      <c r="T28" s="10"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="11"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" spans="3:20">
       <c r="C29" s="5"/>
@@ -4084,9 +4084,9 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="15"/>
-      <c r="T29" s="10"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="11"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30" spans="3:20">
       <c r="C30" s="5"/>
@@ -4102,9 +4102,9 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="15"/>
-      <c r="T30" s="10"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="11"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31" spans="3:20">
       <c r="C31" s="5"/>
@@ -4120,9 +4120,9 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="15"/>
-      <c r="T31" s="10"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="11"/>
+      <c r="T31" s="8"/>
     </row>
     <row r="32" spans="3:20">
       <c r="C32" s="5"/>
@@ -4138,9 +4138,9 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="15"/>
-      <c r="T32" s="10"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="11"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="33" spans="3:20">
       <c r="C33" s="5"/>
@@ -4156,9 +4156,9 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="15"/>
-      <c r="T33" s="10"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="11"/>
+      <c r="T33" s="8"/>
     </row>
     <row r="34" spans="3:20">
       <c r="C34" s="7"/>
@@ -4176,9 +4176,9 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="15"/>
-      <c r="T34" s="10"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="11"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35" spans="3:20">
       <c r="C35" s="4" t="s">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
@@ -4198,13 +4198,13 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="15"/>
-      <c r="T35" s="10"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="11"/>
+      <c r="T35" s="8"/>
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
@@ -4229,7 +4229,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -4246,7 +4246,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="4"/>
@@ -4254,9 +4254,9 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" spans="3:20">
       <c r="C39" s="5"/>
@@ -4264,7 +4264,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="4"/>
@@ -4274,9 +4274,9 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" spans="3:20">
       <c r="C40" s="5"/>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
@@ -4472,7 +4472,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4487,11 +4487,11 @@
     </row>
     <row r="53" spans="3:15">
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="55" spans="3:15">
       <c r="C55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -4531,7 +4531,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -4548,7 +4548,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="4"/>
@@ -4560,11 +4560,11 @@
     <row r="57" spans="3:15">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="9" t="s">
-        <v>43</v>
+      <c r="E57" s="10" t="s">
+        <v>34</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="5"/>
       <c r="I57" s="4"/>
       <c r="J57" s="5"/>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="60" spans="3:15">
       <c r="C60" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -4623,12 +4623,12 @@
     </row>
     <row r="61" spans="3:15">
       <c r="C61" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="62" spans="3:15">
       <c r="C62" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
